--- a/nriss-patch-1/ig/CodeSystem-output-tddui-task-bilan-codesystem.xlsx
+++ b/nriss-patch-1/ig/CodeSystem-output-tddui-task-bilan-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
